--- a/4ИСИП-619/4ИСИП-619_Уп.xlsx
+++ b/4ИСИП-619/4ИСИП-619_Уп.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\4ИСИП-619\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BFF21E-D821-4530-81C7-5E07494EA3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B320A75D-0BA0-4ACA-BB08-7E8CCDC7A0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -798,7 +798,9 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -830,7 +832,9 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -915,7 +919,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -948,7 +952,9 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>

--- a/4ИСИП-619/4ИСИП-619_Уп.xlsx
+++ b/4ИСИП-619/4ИСИП-619_Уп.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\4ИСИП-619\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B320A75D-0BA0-4ACA-BB08-7E8CCDC7A0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766EFB6-2BF9-4C91-9B0B-3E2C50B7E231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,10 +501,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -903,7 +903,9 @@
         <v>20</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -986,7 +988,9 @@
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
